--- a/Data/figures.xlsx
+++ b/Data/figures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="182">
   <si>
     <t>9.881313e-324</t>
   </si>
@@ -527,6 +527,42 @@
   <si>
     <t>Test Dataset</t>
   </si>
+  <si>
+    <t>Call:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multinom(formula = out ~ Per_Small + Per_Medium + Per_Large + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    little + without + other + nothing + again + before + these + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    least + about + those + though + after + through + together + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    where + under + never + right, data = train)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual Deviance: 8.778293e-05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIC: 660.0001 </t>
+  </si>
+  <si>
+    <t>Value/SE</t>
+  </si>
+  <si>
+    <t>(Wald statistics):</t>
+  </si>
+  <si>
+    <t>Note: the coefficients are in terms of log(odds)</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
 </sst>
 </file>
 
@@ -534,11 +570,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,8 +623,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +653,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -645,14 +700,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,22 +740,365 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Overall Residual S^2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17872922134733155"/>
+          <c:y val="6.0185185185185182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11423840769903762"/>
+          <c:y val="5.1284995625546816E-2"/>
+          <c:w val="0.77749715660542429"/>
+          <c:h val="0.72548884514435696"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$200</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$201:$C$218</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>about</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>little</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>these</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>other</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>again</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>right</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>those</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>never</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>before</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>though</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>where</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>nothing</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>through</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>without</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>under</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>after</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>least</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>together</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$201:$D$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>20422.178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17681.512999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16865.008999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14158.494000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14006.028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13654.038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11586.941999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10779.681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9659.7090000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9159.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9106.0319999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8770.6910000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8439.8809999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8000.0209999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7592.7449999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7467.9570000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5059.9769999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3875.8440000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148092032"/>
+        <c:axId val="148093568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148092032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148093568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148093568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148092032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64451334208223976"/>
+          <c:y val="8.5398439778361035E-2"/>
+          <c:w val="0.16381999125109362"/>
+          <c:h val="8.3717191601049873E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3392,18 +3790,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W106"/>
+  <dimension ref="A3:W218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I38" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:W106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,8 +8334,4491 @@
         <v>0</v>
       </c>
     </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" t="s">
+        <v>40</v>
+      </c>
+      <c r="K111" t="s">
+        <v>42</v>
+      </c>
+      <c r="L111" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" s="6"/>
+      <c r="O111" t="s">
+        <v>39</v>
+      </c>
+      <c r="P111" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>41</v>
+      </c>
+      <c r="R111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>49</v>
+      </c>
+      <c r="B112" s="13">
+        <v>18</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="23">
+        <v>6</v>
+      </c>
+      <c r="H112" s="6">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>31</v>
+      </c>
+      <c r="J112" t="s">
+        <v>90</v>
+      </c>
+      <c r="K112">
+        <v>10</v>
+      </c>
+      <c r="L112" t="s">
+        <v>95</v>
+      </c>
+      <c r="N112" s="6">
+        <v>18</v>
+      </c>
+      <c r="O112">
+        <v>18</v>
+      </c>
+      <c r="P112" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>122</v>
+      </c>
+      <c r="R112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>51</v>
+      </c>
+      <c r="B113" s="13">
+        <v>33</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E113" s="23">
+        <v>10</v>
+      </c>
+      <c r="H113" s="6">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>41</v>
+      </c>
+      <c r="J113" t="s">
+        <v>69</v>
+      </c>
+      <c r="K113">
+        <v>13</v>
+      </c>
+      <c r="L113" t="s">
+        <v>72</v>
+      </c>
+      <c r="N113" s="6">
+        <v>33</v>
+      </c>
+      <c r="O113">
+        <v>33</v>
+      </c>
+      <c r="P113" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>91</v>
+      </c>
+      <c r="R113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>42</v>
+      </c>
+      <c r="B114" s="13">
+        <v>30</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" s="23">
+        <v>9</v>
+      </c>
+      <c r="H114" s="6">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>43</v>
+      </c>
+      <c r="J114" t="s">
+        <v>62</v>
+      </c>
+      <c r="K114">
+        <v>14</v>
+      </c>
+      <c r="L114" t="s">
+        <v>67</v>
+      </c>
+      <c r="N114" s="6">
+        <v>30</v>
+      </c>
+      <c r="O114">
+        <v>30</v>
+      </c>
+      <c r="P114" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>97</v>
+      </c>
+      <c r="R114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>3</v>
+      </c>
+      <c r="B115" s="13">
+        <v>2</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E115" s="23">
+        <v>1</v>
+      </c>
+      <c r="H115" s="6">
+        <v>4</v>
+      </c>
+      <c r="I115">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
+        <v>69</v>
+      </c>
+      <c r="K115">
+        <v>13</v>
+      </c>
+      <c r="L115" t="s">
+        <v>74</v>
+      </c>
+      <c r="N115" s="6">
+        <v>2</v>
+      </c>
+      <c r="O115">
+        <v>2</v>
+      </c>
+      <c r="P115" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>156</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+    </row>
+    <row r="122" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+    </row>
+    <row r="123" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+    </row>
+    <row r="124" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="L124">
+        <f>EXP(444.62)</f>
+        <v>1.2474195432179176E+193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B127" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K128" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L128" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O128" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P128" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q128" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R128" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S128" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T128" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U128" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V128" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W128" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" s="25">
+        <v>2</v>
+      </c>
+      <c r="B129" s="28">
+        <v>-0.13696061000000001</v>
+      </c>
+      <c r="C129" s="28">
+        <v>-27.880834799999999</v>
+      </c>
+      <c r="D129" s="28">
+        <v>-15.213498</v>
+      </c>
+      <c r="E129" s="28">
+        <v>56.174216000000001</v>
+      </c>
+      <c r="F129" s="28">
+        <v>-358.62643000000003</v>
+      </c>
+      <c r="G129" s="28">
+        <v>4.2515340000000004</v>
+      </c>
+      <c r="H129" s="28">
+        <v>679.23680000000002</v>
+      </c>
+      <c r="I129" s="28">
+        <v>-153.39528999999999</v>
+      </c>
+      <c r="J129" s="28">
+        <v>42.905230000000003</v>
+      </c>
+      <c r="K129" s="28">
+        <v>-215.24229800000001</v>
+      </c>
+      <c r="L129" s="28">
+        <v>989.46285999999998</v>
+      </c>
+      <c r="M129" s="28">
+        <v>-33.201659999999997</v>
+      </c>
+      <c r="N129" s="28">
+        <v>-72.608819999999994</v>
+      </c>
+      <c r="O129" s="28">
+        <v>685.1006635</v>
+      </c>
+      <c r="P129" s="28">
+        <v>23.64387</v>
+      </c>
+      <c r="Q129" s="28">
+        <v>3.3695210000000002</v>
+      </c>
+      <c r="R129" s="28">
+        <v>-70.904669999999996</v>
+      </c>
+      <c r="S129" s="28">
+        <v>38.781047000000001</v>
+      </c>
+      <c r="T129" s="28">
+        <v>-46.858443999999999</v>
+      </c>
+      <c r="U129" s="28">
+        <v>-1.9416869999999999</v>
+      </c>
+      <c r="V129" s="28">
+        <v>-285.843253</v>
+      </c>
+      <c r="W129" s="28">
+        <v>94.062237999999994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130" s="25">
+        <v>3</v>
+      </c>
+      <c r="B130" s="28">
+        <v>0.15230005999999999</v>
+      </c>
+      <c r="C130" s="28">
+        <v>-21.0816132</v>
+      </c>
+      <c r="D130" s="28">
+        <v>-29.07057</v>
+      </c>
+      <c r="E130" s="28">
+        <v>68.028701999999996</v>
+      </c>
+      <c r="F130" s="28">
+        <v>26.16187</v>
+      </c>
+      <c r="G130" s="28">
+        <v>325.83067499999999</v>
+      </c>
+      <c r="H130" s="28">
+        <v>-10.938280000000001</v>
+      </c>
+      <c r="I130" s="28">
+        <v>440.98099000000002</v>
+      </c>
+      <c r="J130" s="28">
+        <v>230.45867999999999</v>
+      </c>
+      <c r="K130" s="28">
+        <v>265.53265099999999</v>
+      </c>
+      <c r="L130" s="28">
+        <v>-650.63850000000002</v>
+      </c>
+      <c r="M130" s="28">
+        <v>144.34522000000001</v>
+      </c>
+      <c r="N130" s="28">
+        <v>-128.67899</v>
+      </c>
+      <c r="O130" s="28">
+        <v>-154.84929829999999</v>
+      </c>
+      <c r="P130" s="28">
+        <v>493.01384999999999</v>
+      </c>
+      <c r="Q130" s="28">
+        <v>211.52529200000001</v>
+      </c>
+      <c r="R130" s="28">
+        <v>-296.07177999999999</v>
+      </c>
+      <c r="S130" s="28">
+        <v>124.72957</v>
+      </c>
+      <c r="T130" s="28">
+        <v>-192.763171</v>
+      </c>
+      <c r="U130" s="28">
+        <v>-192.600065</v>
+      </c>
+      <c r="V130" s="28">
+        <v>534.96537899999998</v>
+      </c>
+      <c r="W130" s="28">
+        <v>-67.527383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" s="25">
+        <v>4</v>
+      </c>
+      <c r="B131" s="28">
+        <v>0.60479210999999999</v>
+      </c>
+      <c r="C131" s="28">
+        <v>-198.7224186</v>
+      </c>
+      <c r="D131" s="28">
+        <v>293.40198099999998</v>
+      </c>
+      <c r="E131" s="28">
+        <v>-18.999907</v>
+      </c>
+      <c r="F131" s="28">
+        <v>34.776789999999998</v>
+      </c>
+      <c r="G131" s="28">
+        <v>68.520465000000002</v>
+      </c>
+      <c r="H131" s="28">
+        <v>40.359341000000001</v>
+      </c>
+      <c r="I131" s="28">
+        <v>24.054040000000001</v>
+      </c>
+      <c r="J131" s="28">
+        <v>135.30307999999999</v>
+      </c>
+      <c r="K131" s="28">
+        <v>-55.519441</v>
+      </c>
+      <c r="L131" s="28">
+        <v>-63.204949999999997</v>
+      </c>
+      <c r="M131" s="28">
+        <v>66.622330000000005</v>
+      </c>
+      <c r="N131" s="28">
+        <v>-201.00828000000001</v>
+      </c>
+      <c r="O131" s="28">
+        <v>36.851340399999998</v>
+      </c>
+      <c r="P131" s="28">
+        <v>74.784319999999994</v>
+      </c>
+      <c r="Q131" s="28">
+        <v>-33.832225999999999</v>
+      </c>
+      <c r="R131" s="28">
+        <v>-79.998720000000006</v>
+      </c>
+      <c r="S131" s="28">
+        <v>-30.661670000000001</v>
+      </c>
+      <c r="T131" s="28">
+        <v>-181.04020700000001</v>
+      </c>
+      <c r="U131" s="28">
+        <v>-12.937495</v>
+      </c>
+      <c r="V131" s="28">
+        <v>24.905593</v>
+      </c>
+      <c r="W131" s="28">
+        <v>83.973416999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" s="25">
+        <v>5</v>
+      </c>
+      <c r="B132" s="28">
+        <v>-3.8382230000000003E-2</v>
+      </c>
+      <c r="C132" s="28">
+        <v>-23.991987099999999</v>
+      </c>
+      <c r="D132" s="28">
+        <v>14.771715</v>
+      </c>
+      <c r="E132" s="28">
+        <v>13.434737999999999</v>
+      </c>
+      <c r="F132" s="28">
+        <v>114.19636</v>
+      </c>
+      <c r="G132" s="28">
+        <v>-17.609487000000001</v>
+      </c>
+      <c r="H132" s="28">
+        <v>-181.53944799999999</v>
+      </c>
+      <c r="I132" s="28">
+        <v>-48.531730000000003</v>
+      </c>
+      <c r="J132" s="28">
+        <v>-110.74160999999999</v>
+      </c>
+      <c r="K132" s="28">
+        <v>42.342933000000002</v>
+      </c>
+      <c r="L132" s="28">
+        <v>-215.81706</v>
+      </c>
+      <c r="M132" s="28">
+        <v>-26.597270000000002</v>
+      </c>
+      <c r="N132" s="28">
+        <v>842.35271</v>
+      </c>
+      <c r="O132" s="28">
+        <v>26.4877517</v>
+      </c>
+      <c r="P132" s="28">
+        <v>-111.87996</v>
+      </c>
+      <c r="Q132" s="28">
+        <v>202.91549699999999</v>
+      </c>
+      <c r="R132" s="28">
+        <v>215.79473999999999</v>
+      </c>
+      <c r="S132" s="28">
+        <v>23.212928000000002</v>
+      </c>
+      <c r="T132" s="28">
+        <v>116.084881</v>
+      </c>
+      <c r="U132" s="28">
+        <v>197.55505099999999</v>
+      </c>
+      <c r="V132" s="28">
+        <v>271.96548300000001</v>
+      </c>
+      <c r="W132" s="28">
+        <v>-73.891563000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A133" s="25">
+        <v>6</v>
+      </c>
+      <c r="B133" s="28">
+        <v>0.24004431000000001</v>
+      </c>
+      <c r="C133" s="28">
+        <v>-6.4208660999999996</v>
+      </c>
+      <c r="D133" s="28">
+        <v>-9.4504249999999992</v>
+      </c>
+      <c r="E133" s="28">
+        <v>25.210440999999999</v>
+      </c>
+      <c r="F133" s="28">
+        <v>-74.793840000000003</v>
+      </c>
+      <c r="G133" s="28">
+        <v>-22.916827000000001</v>
+      </c>
+      <c r="H133" s="28">
+        <v>-100.10084999999999</v>
+      </c>
+      <c r="I133" s="28">
+        <v>147.11447999999999</v>
+      </c>
+      <c r="J133" s="28">
+        <v>158.64348000000001</v>
+      </c>
+      <c r="K133" s="28">
+        <v>184.338009</v>
+      </c>
+      <c r="L133" s="28">
+        <v>-123.30654</v>
+      </c>
+      <c r="M133" s="28">
+        <v>-76</v>
+      </c>
+      <c r="N133" s="28">
+        <v>-276.63573000000002</v>
+      </c>
+      <c r="O133" s="28">
+        <v>61.242203600000003</v>
+      </c>
+      <c r="P133" s="28">
+        <v>98.311179999999993</v>
+      </c>
+      <c r="Q133" s="28">
+        <v>-113.238057</v>
+      </c>
+      <c r="R133" s="28">
+        <v>142.08627999999999</v>
+      </c>
+      <c r="S133" s="28">
+        <v>17.548959</v>
+      </c>
+      <c r="T133" s="28">
+        <v>168.25757899999999</v>
+      </c>
+      <c r="U133" s="28">
+        <v>106.206883</v>
+      </c>
+      <c r="V133" s="28">
+        <v>79.729678000000007</v>
+      </c>
+      <c r="W133" s="28">
+        <v>-55.703299999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A134" s="25">
+        <v>7</v>
+      </c>
+      <c r="B134" s="28">
+        <v>7.4198790000000001E-2</v>
+      </c>
+      <c r="C134" s="28">
+        <v>-0.99548320000000001</v>
+      </c>
+      <c r="D134" s="28">
+        <v>-6.2966899999999999</v>
+      </c>
+      <c r="E134" s="28">
+        <v>14.111383999999999</v>
+      </c>
+      <c r="F134" s="28">
+        <v>47.227080000000001</v>
+      </c>
+      <c r="G134" s="28">
+        <v>-55.351095000000001</v>
+      </c>
+      <c r="H134" s="28">
+        <v>-85.178550000000001</v>
+      </c>
+      <c r="I134" s="28">
+        <v>167.37630999999999</v>
+      </c>
+      <c r="J134" s="28">
+        <v>-243.25915000000001</v>
+      </c>
+      <c r="K134" s="28">
+        <v>223.905891</v>
+      </c>
+      <c r="L134" s="28">
+        <v>-173.20688999999999</v>
+      </c>
+      <c r="M134" s="28">
+        <v>15.757809999999999</v>
+      </c>
+      <c r="N134" s="28">
+        <v>-264.92858000000001</v>
+      </c>
+      <c r="O134" s="28">
+        <v>-54.548664100000003</v>
+      </c>
+      <c r="P134" s="28">
+        <v>-85.339690000000004</v>
+      </c>
+      <c r="Q134" s="28">
+        <v>16.506886999999999</v>
+      </c>
+      <c r="R134" s="28">
+        <v>26.546810000000001</v>
+      </c>
+      <c r="S134" s="28">
+        <v>41.447685999999997</v>
+      </c>
+      <c r="T134" s="28">
+        <v>-5.3157240000000003</v>
+      </c>
+      <c r="U134" s="28">
+        <v>-90.979999000000007</v>
+      </c>
+      <c r="V134" s="28">
+        <v>-59.681755000000003</v>
+      </c>
+      <c r="W134" s="28">
+        <v>-69.238859000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A135" s="25">
+        <v>8</v>
+      </c>
+      <c r="B135" s="28">
+        <v>0.13016053999999999</v>
+      </c>
+      <c r="C135" s="28">
+        <v>3.0922822000000001</v>
+      </c>
+      <c r="D135" s="28">
+        <v>-110.089237</v>
+      </c>
+      <c r="E135" s="28">
+        <v>123.023607</v>
+      </c>
+      <c r="F135" s="28">
+        <v>-334.09019000000001</v>
+      </c>
+      <c r="G135" s="28">
+        <v>-165.25756699999999</v>
+      </c>
+      <c r="H135" s="28">
+        <v>-88.487399999999994</v>
+      </c>
+      <c r="I135" s="28">
+        <v>-87.538169999999994</v>
+      </c>
+      <c r="J135" s="28">
+        <v>-197.92059</v>
+      </c>
+      <c r="K135" s="28">
+        <v>-216.283029</v>
+      </c>
+      <c r="L135" s="28">
+        <v>217.55941000000001</v>
+      </c>
+      <c r="M135" s="28">
+        <v>-127.79194</v>
+      </c>
+      <c r="N135" s="28">
+        <v>-348.43563999999998</v>
+      </c>
+      <c r="O135" s="28">
+        <v>-53.008758700000001</v>
+      </c>
+      <c r="P135" s="28">
+        <v>-88.374759999999995</v>
+      </c>
+      <c r="Q135" s="28">
+        <v>-80.966787999999994</v>
+      </c>
+      <c r="R135" s="28">
+        <v>135.16216</v>
+      </c>
+      <c r="S135" s="28">
+        <v>-104.696215</v>
+      </c>
+      <c r="T135" s="28">
+        <v>64.25676</v>
+      </c>
+      <c r="U135" s="28">
+        <v>-143.906181</v>
+      </c>
+      <c r="V135" s="28">
+        <v>61.018414</v>
+      </c>
+      <c r="W135" s="28">
+        <v>-78.627249000000006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="25">
+        <v>9</v>
+      </c>
+      <c r="B136" s="28">
+        <v>0.86163745000000003</v>
+      </c>
+      <c r="C136" s="28">
+        <v>-144.5395728</v>
+      </c>
+      <c r="D136" s="28">
+        <v>28.65887</v>
+      </c>
+      <c r="E136" s="28">
+        <v>214.658973</v>
+      </c>
+      <c r="F136" s="28">
+        <v>398.16802999999999</v>
+      </c>
+      <c r="G136" s="28">
+        <v>-12.691773</v>
+      </c>
+      <c r="H136" s="28">
+        <v>7.3799679999999999</v>
+      </c>
+      <c r="I136" s="28">
+        <v>37.659089999999999</v>
+      </c>
+      <c r="J136" s="28">
+        <v>65.594210000000004</v>
+      </c>
+      <c r="K136" s="28">
+        <v>82.704408999999998</v>
+      </c>
+      <c r="L136" s="28">
+        <v>-238.16439</v>
+      </c>
+      <c r="M136" s="28">
+        <v>36.296849999999999</v>
+      </c>
+      <c r="N136" s="28">
+        <v>-303.97719999999998</v>
+      </c>
+      <c r="O136" s="28">
+        <v>-131.72777769999999</v>
+      </c>
+      <c r="P136" s="28">
+        <v>-16.653600000000001</v>
+      </c>
+      <c r="Q136" s="28">
+        <v>40.65296</v>
+      </c>
+      <c r="R136" s="28">
+        <v>37.569569999999999</v>
+      </c>
+      <c r="S136" s="28">
+        <v>40.713402000000002</v>
+      </c>
+      <c r="T136" s="28">
+        <v>-249.59091799999999</v>
+      </c>
+      <c r="U136" s="28">
+        <v>-186.37335400000001</v>
+      </c>
+      <c r="V136" s="28">
+        <v>46.543126000000001</v>
+      </c>
+      <c r="W136" s="28">
+        <v>30.219968999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="25">
+        <v>10</v>
+      </c>
+      <c r="B137" s="28">
+        <v>0.38871602999999999</v>
+      </c>
+      <c r="C137" s="28">
+        <v>-50.949876799999998</v>
+      </c>
+      <c r="D137" s="28">
+        <v>-64.480581999999998</v>
+      </c>
+      <c r="E137" s="28">
+        <v>161.827484</v>
+      </c>
+      <c r="F137" s="28">
+        <v>232.19614999999999</v>
+      </c>
+      <c r="G137" s="28">
+        <v>-128.48700099999999</v>
+      </c>
+      <c r="H137" s="28">
+        <v>-305.89898899999997</v>
+      </c>
+      <c r="I137" s="28">
+        <v>-115.90358999999999</v>
+      </c>
+      <c r="J137" s="28">
+        <v>-168.98304999999999</v>
+      </c>
+      <c r="K137" s="28">
+        <v>-93.621702999999997</v>
+      </c>
+      <c r="L137" s="28">
+        <v>-272.31945000000002</v>
+      </c>
+      <c r="M137" s="28">
+        <v>-58.102800000000002</v>
+      </c>
+      <c r="N137" s="28">
+        <v>542.08871999999997</v>
+      </c>
+      <c r="O137" s="28">
+        <v>43.7698374</v>
+      </c>
+      <c r="P137" s="28">
+        <v>101.2645</v>
+      </c>
+      <c r="Q137" s="28">
+        <v>-167.92073500000001</v>
+      </c>
+      <c r="R137" s="28">
+        <v>30.055510000000002</v>
+      </c>
+      <c r="S137" s="28">
+        <v>-16.728418000000001</v>
+      </c>
+      <c r="T137" s="28">
+        <v>167.08286100000001</v>
+      </c>
+      <c r="U137" s="28">
+        <v>121.617502</v>
+      </c>
+      <c r="V137" s="28">
+        <v>-174.04456999999999</v>
+      </c>
+      <c r="W137" s="28">
+        <v>-169.18988899999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="25">
+        <v>11</v>
+      </c>
+      <c r="B138" s="28">
+        <v>1.26379196</v>
+      </c>
+      <c r="C138" s="28">
+        <v>-191.91656570000001</v>
+      </c>
+      <c r="D138" s="28">
+        <v>-4.7778960000000001</v>
+      </c>
+      <c r="E138" s="28">
+        <v>311.36381699999998</v>
+      </c>
+      <c r="F138" s="28">
+        <v>-221.49005</v>
+      </c>
+      <c r="G138" s="28">
+        <v>49.349741000000002</v>
+      </c>
+      <c r="H138" s="28">
+        <v>176.16983500000001</v>
+      </c>
+      <c r="I138" s="28">
+        <v>-29.14303</v>
+      </c>
+      <c r="J138" s="28">
+        <v>13.35275</v>
+      </c>
+      <c r="K138" s="28">
+        <v>-5.4674870000000002</v>
+      </c>
+      <c r="L138" s="28">
+        <v>392.81891000000002</v>
+      </c>
+      <c r="M138" s="28">
+        <v>-35.184719999999999</v>
+      </c>
+      <c r="N138" s="28">
+        <v>196.28509</v>
+      </c>
+      <c r="O138" s="28">
+        <v>266.99259699999999</v>
+      </c>
+      <c r="P138" s="28">
+        <v>-134.12428</v>
+      </c>
+      <c r="Q138" s="28">
+        <v>8.3502290000000006</v>
+      </c>
+      <c r="R138" s="28">
+        <v>-58.750030000000002</v>
+      </c>
+      <c r="S138" s="28">
+        <v>-21.893689999999999</v>
+      </c>
+      <c r="T138" s="28">
+        <v>113.01978699999999</v>
+      </c>
+      <c r="U138" s="28">
+        <v>127.934804</v>
+      </c>
+      <c r="V138" s="28">
+        <v>13.429258000000001</v>
+      </c>
+      <c r="W138" s="28">
+        <v>90.286079000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="25">
+        <v>12</v>
+      </c>
+      <c r="B139" s="28">
+        <v>-0.94737243999999998</v>
+      </c>
+      <c r="C139" s="28">
+        <v>127.9615585</v>
+      </c>
+      <c r="D139" s="28">
+        <v>-375.41849400000001</v>
+      </c>
+      <c r="E139" s="28">
+        <v>154.21920499999999</v>
+      </c>
+      <c r="F139" s="28">
+        <v>-102.74357999999999</v>
+      </c>
+      <c r="G139" s="28">
+        <v>160.873198</v>
+      </c>
+      <c r="H139" s="28">
+        <v>120.973624</v>
+      </c>
+      <c r="I139" s="28">
+        <v>55.483240000000002</v>
+      </c>
+      <c r="J139" s="28">
+        <v>-19.560359999999999</v>
+      </c>
+      <c r="K139" s="28">
+        <v>-88.642026999999999</v>
+      </c>
+      <c r="L139" s="28">
+        <v>-98.141099999999994</v>
+      </c>
+      <c r="M139" s="28">
+        <v>86.538550000000001</v>
+      </c>
+      <c r="N139" s="28">
+        <v>-81.241529999999997</v>
+      </c>
+      <c r="O139" s="28">
+        <v>-121.8101121</v>
+      </c>
+      <c r="P139" s="28">
+        <v>-28.25939</v>
+      </c>
+      <c r="Q139" s="28">
+        <v>-76.850498000000002</v>
+      </c>
+      <c r="R139" s="28">
+        <v>-56.682879999999997</v>
+      </c>
+      <c r="S139" s="28">
+        <v>-8.4067530000000001</v>
+      </c>
+      <c r="T139" s="28">
+        <v>-85.177968000000007</v>
+      </c>
+      <c r="U139" s="28">
+        <v>59.243642999999999</v>
+      </c>
+      <c r="V139" s="28">
+        <v>28.363243000000001</v>
+      </c>
+      <c r="W139" s="28">
+        <v>203.447744</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="25">
+        <v>13</v>
+      </c>
+      <c r="B140" s="28">
+        <v>-0.85025360999999999</v>
+      </c>
+      <c r="C140" s="28">
+        <v>139.01967089999999</v>
+      </c>
+      <c r="D140" s="28">
+        <v>-236.48764600000001</v>
+      </c>
+      <c r="E140" s="28">
+        <v>4.4888479999999999</v>
+      </c>
+      <c r="F140" s="28">
+        <v>-159.13559000000001</v>
+      </c>
+      <c r="G140" s="28">
+        <v>-146.32583600000001</v>
+      </c>
+      <c r="H140" s="28">
+        <v>262.94154800000001</v>
+      </c>
+      <c r="I140" s="28">
+        <v>-84.793899999999994</v>
+      </c>
+      <c r="J140" s="28">
+        <v>-32.649630000000002</v>
+      </c>
+      <c r="K140" s="28">
+        <v>-142.25839400000001</v>
+      </c>
+      <c r="L140" s="28">
+        <v>-63.999229999999997</v>
+      </c>
+      <c r="M140" s="28">
+        <v>-44.325569999999999</v>
+      </c>
+      <c r="N140" s="28">
+        <v>117.79405</v>
+      </c>
+      <c r="O140" s="28">
+        <v>0.39329380000000003</v>
+      </c>
+      <c r="P140" s="28">
+        <v>-83.282539999999997</v>
+      </c>
+      <c r="Q140" s="28">
+        <v>-60.243720000000003</v>
+      </c>
+      <c r="R140" s="28">
+        <v>-40.621940000000002</v>
+      </c>
+      <c r="S140" s="28">
+        <v>13.453542000000001</v>
+      </c>
+      <c r="T140" s="28">
+        <v>-142.40851499999999</v>
+      </c>
+      <c r="U140" s="28">
+        <v>-50.287973999999998</v>
+      </c>
+      <c r="V140" s="28">
+        <v>-125.758788</v>
+      </c>
+      <c r="W140" s="28">
+        <v>-62.072153999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="25">
+        <v>14</v>
+      </c>
+      <c r="B141" s="28">
+        <v>-0.25632747</v>
+      </c>
+      <c r="C141" s="28">
+        <v>48.831423200000003</v>
+      </c>
+      <c r="D141" s="28">
+        <v>-80.560113999999999</v>
+      </c>
+      <c r="E141" s="28">
+        <v>2.4095080000000002</v>
+      </c>
+      <c r="F141" s="28">
+        <v>257.86572999999999</v>
+      </c>
+      <c r="G141" s="28">
+        <v>40.283504000000001</v>
+      </c>
+      <c r="H141" s="28">
+        <v>-157.44406599999999</v>
+      </c>
+      <c r="I141" s="28">
+        <v>-140.51731000000001</v>
+      </c>
+      <c r="J141" s="28">
+        <v>55.94558</v>
+      </c>
+      <c r="K141" s="28">
+        <v>98.374853000000002</v>
+      </c>
+      <c r="L141" s="28">
+        <v>248.04794000000001</v>
+      </c>
+      <c r="M141" s="28">
+        <v>231.60288</v>
+      </c>
+      <c r="N141" s="28">
+        <v>-339.84251999999998</v>
+      </c>
+      <c r="O141" s="28">
+        <v>-203.51082510000001</v>
+      </c>
+      <c r="P141" s="28">
+        <v>56.837429999999998</v>
+      </c>
+      <c r="Q141" s="28">
+        <v>31.620256999999999</v>
+      </c>
+      <c r="R141" s="28">
+        <v>-32.509099999999997</v>
+      </c>
+      <c r="S141" s="28">
+        <v>33.523142</v>
+      </c>
+      <c r="T141" s="28">
+        <v>282.615678</v>
+      </c>
+      <c r="U141" s="28">
+        <v>48.748176999999998</v>
+      </c>
+      <c r="V141" s="28">
+        <v>5.7548640000000004</v>
+      </c>
+      <c r="W141" s="28">
+        <v>-292.56372099999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="25">
+        <v>15</v>
+      </c>
+      <c r="B142" s="28">
+        <v>0.20941882000000001</v>
+      </c>
+      <c r="C142" s="28">
+        <v>6.4389443999999996</v>
+      </c>
+      <c r="D142" s="28">
+        <v>-17.284748</v>
+      </c>
+      <c r="E142" s="28">
+        <v>7.4816599999999998</v>
+      </c>
+      <c r="F142" s="28">
+        <v>-17.868020000000001</v>
+      </c>
+      <c r="G142" s="28">
+        <v>-3.3820579999999998</v>
+      </c>
+      <c r="H142" s="28">
+        <v>9.8560809999999996</v>
+      </c>
+      <c r="I142" s="28">
+        <v>-39.002699999999997</v>
+      </c>
+      <c r="J142" s="28">
+        <v>269.04480000000001</v>
+      </c>
+      <c r="K142" s="28">
+        <v>21.897535999999999</v>
+      </c>
+      <c r="L142" s="28">
+        <v>191.28073000000001</v>
+      </c>
+      <c r="M142" s="28">
+        <v>-97.855360000000005</v>
+      </c>
+      <c r="N142" s="28">
+        <v>82.323589999999996</v>
+      </c>
+      <c r="O142" s="28">
+        <v>-191.18686210000001</v>
+      </c>
+      <c r="P142" s="28">
+        <v>-212.65665999999999</v>
+      </c>
+      <c r="Q142" s="28">
+        <v>120.39939200000001</v>
+      </c>
+      <c r="R142" s="28">
+        <v>99.333950000000002</v>
+      </c>
+      <c r="S142" s="28">
+        <v>-44.941395</v>
+      </c>
+      <c r="T142" s="28">
+        <v>-213.08860999999999</v>
+      </c>
+      <c r="U142" s="28">
+        <v>88.923342000000005</v>
+      </c>
+      <c r="V142" s="28">
+        <v>-128.90091000000001</v>
+      </c>
+      <c r="W142" s="28">
+        <v>259.96542199999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="25">
+        <v>16</v>
+      </c>
+      <c r="B143" s="28">
+        <v>0.30828661000000002</v>
+      </c>
+      <c r="C143" s="28">
+        <v>-11.8957172</v>
+      </c>
+      <c r="D143" s="28">
+        <v>-48.807614999999998</v>
+      </c>
+      <c r="E143" s="28">
+        <v>74.292541</v>
+      </c>
+      <c r="F143" s="28">
+        <v>345.72008</v>
+      </c>
+      <c r="G143" s="28">
+        <v>-91.278610999999998</v>
+      </c>
+      <c r="H143" s="28">
+        <v>-101.939961</v>
+      </c>
+      <c r="I143" s="28">
+        <v>-86.515060000000005</v>
+      </c>
+      <c r="J143" s="28">
+        <v>185.81021000000001</v>
+      </c>
+      <c r="K143" s="28">
+        <v>45.497838999999999</v>
+      </c>
+      <c r="L143" s="28">
+        <v>164.29921999999999</v>
+      </c>
+      <c r="M143" s="28">
+        <v>-10.193440000000001</v>
+      </c>
+      <c r="N143" s="28">
+        <v>110.70341999999999</v>
+      </c>
+      <c r="O143" s="28">
+        <v>-65.960053099999996</v>
+      </c>
+      <c r="P143" s="28">
+        <v>-45.342509999999997</v>
+      </c>
+      <c r="Q143" s="28">
+        <v>-21.298891000000001</v>
+      </c>
+      <c r="R143" s="28">
+        <v>135.58627999999999</v>
+      </c>
+      <c r="S143" s="28">
+        <v>-30.765628</v>
+      </c>
+      <c r="T143" s="28">
+        <v>-28.848493000000001</v>
+      </c>
+      <c r="U143" s="28">
+        <v>71.122656000000006</v>
+      </c>
+      <c r="V143" s="28">
+        <v>-108.385374</v>
+      </c>
+      <c r="W143" s="28">
+        <v>-4.929513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+    </row>
+    <row r="145" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B145" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" s="25"/>
+      <c r="B146" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L146" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M146" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O146" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P146" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q146" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R146" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S146" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T146" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U146" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V146" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W146" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" s="25">
+        <v>2</v>
+      </c>
+      <c r="B147" s="27">
+        <v>3.9856289999999997E-7</v>
+      </c>
+      <c r="C147" s="27">
+        <v>2.3483889999999998E-8</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H147" s="27">
+        <v>4.2400529999999999E-7</v>
+      </c>
+      <c r="I147" s="27">
+        <v>2.4400480000000001E-8</v>
+      </c>
+      <c r="J147" s="27">
+        <v>1.362137E-7</v>
+      </c>
+      <c r="K147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L147" s="27">
+        <v>3.2516900000000002E-32</v>
+      </c>
+      <c r="M147" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N147" s="27">
+        <v>1.6357999999999999E-23</v>
+      </c>
+      <c r="O147" s="27">
+        <v>7.9687450000000007E-24</v>
+      </c>
+      <c r="P147" s="27">
+        <v>9.8217500000000004E-24</v>
+      </c>
+      <c r="Q147" s="27">
+        <v>1.5747900000000001E-23</v>
+      </c>
+      <c r="R147" s="27">
+        <v>1.2676919999999999E-23</v>
+      </c>
+      <c r="S147" s="27">
+        <v>4.7077079999999996E-24</v>
+      </c>
+      <c r="T147" s="27">
+        <v>1.554512E-23</v>
+      </c>
+      <c r="U147" s="27">
+        <v>1.043131E-23</v>
+      </c>
+      <c r="V147" s="27">
+        <v>1.2676799999999999E-23</v>
+      </c>
+      <c r="W147" s="27">
+        <v>3.6800270000000003E-24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148" s="25">
+        <v>3</v>
+      </c>
+      <c r="B148" s="27">
+        <v>2.5620850000000001E-5</v>
+      </c>
+      <c r="C148" s="27">
+        <v>1.1911129999999999E-3</v>
+      </c>
+      <c r="D148" s="27">
+        <v>7.6324520000000003E-4</v>
+      </c>
+      <c r="E148" s="27">
+        <v>6.0772660000000004E-4</v>
+      </c>
+      <c r="F148" s="27">
+        <v>5.8799859999999996E-6</v>
+      </c>
+      <c r="G148" s="27">
+        <v>3.4844360000000002E-6</v>
+      </c>
+      <c r="H148" s="27">
+        <v>3.5843569999999998E-6</v>
+      </c>
+      <c r="I148" s="27">
+        <v>4.1044610000000002E-6</v>
+      </c>
+      <c r="J148" s="27">
+        <v>3.5177429999999999E-6</v>
+      </c>
+      <c r="K148" s="27">
+        <v>4.0071019999999998E-6</v>
+      </c>
+      <c r="L148" s="27">
+        <v>1.0760759999999999E-6</v>
+      </c>
+      <c r="M148" s="27">
+        <v>1.3681540000000001E-6</v>
+      </c>
+      <c r="N148" s="27">
+        <v>4.0557809999999999E-6</v>
+      </c>
+      <c r="O148" s="27">
+        <v>1.5475E-6</v>
+      </c>
+      <c r="P148" s="27">
+        <v>2.8823459999999999E-6</v>
+      </c>
+      <c r="Q148" s="27">
+        <v>2.6210130000000001E-6</v>
+      </c>
+      <c r="R148" s="27">
+        <v>9.9408909999999999E-7</v>
+      </c>
+      <c r="S148" s="27">
+        <v>1.304101E-6</v>
+      </c>
+      <c r="T148" s="27">
+        <v>1.416833E-6</v>
+      </c>
+      <c r="U148" s="27">
+        <v>1.024834E-6</v>
+      </c>
+      <c r="V148" s="27">
+        <v>5.8313060000000001E-6</v>
+      </c>
+      <c r="W148" s="27">
+        <v>1.432206E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A149" s="25">
+        <v>4</v>
+      </c>
+      <c r="B149" s="27">
+        <v>5.8639130000000002E-69</v>
+      </c>
+      <c r="C149" s="27">
+        <v>2.6898809999999999E-67</v>
+      </c>
+      <c r="D149" s="27">
+        <v>1.9063779999999999E-67</v>
+      </c>
+      <c r="E149" s="27">
+        <v>1.273045E-67</v>
+      </c>
+      <c r="F149" s="27">
+        <v>1.4790749999999999E-69</v>
+      </c>
+      <c r="G149" s="27">
+        <v>4.010628E-70</v>
+      </c>
+      <c r="H149" s="27">
+        <v>7.3046549999999997E-70</v>
+      </c>
+      <c r="I149" s="27">
+        <v>5.4853580000000002E-70</v>
+      </c>
+      <c r="J149" s="27">
+        <v>8.5817289999999994E-70</v>
+      </c>
+      <c r="K149" s="27">
+        <v>1.087979E-69</v>
+      </c>
+      <c r="L149" s="27">
+        <v>5.001437E-70</v>
+      </c>
+      <c r="M149" s="27">
+        <v>9.0579839999999999E-71</v>
+      </c>
+      <c r="N149" s="27">
+        <v>2.0454870000000001E-69</v>
+      </c>
+      <c r="O149" s="27">
+        <v>2.7768220000000002E-70</v>
+      </c>
+      <c r="P149" s="27">
+        <v>5.3126789999999998E-70</v>
+      </c>
+      <c r="Q149" s="27">
+        <v>6.2792529999999995E-70</v>
+      </c>
+      <c r="R149" s="27">
+        <v>6.4214920000000006E-70</v>
+      </c>
+      <c r="S149" s="27">
+        <v>2.9285890000000003E-70</v>
+      </c>
+      <c r="T149" s="27">
+        <v>8.7939800000000003E-70</v>
+      </c>
+      <c r="U149" s="27">
+        <v>2.9669490000000002E-70</v>
+      </c>
+      <c r="V149" s="27">
+        <v>1.007767E-69</v>
+      </c>
+      <c r="W149" s="27">
+        <v>3.6545929999999999E-70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150" s="25">
+        <v>5</v>
+      </c>
+      <c r="B150" s="27">
+        <v>1.195556E-41</v>
+      </c>
+      <c r="C150" s="27">
+        <v>5.6095479999999999E-40</v>
+      </c>
+      <c r="D150" s="27">
+        <v>3.6081869999999999E-40</v>
+      </c>
+      <c r="E150" s="27">
+        <v>2.7390179999999999E-40</v>
+      </c>
+      <c r="F150" s="27">
+        <v>3.2734319999999998E-42</v>
+      </c>
+      <c r="G150" s="27">
+        <v>9.2296910000000002E-43</v>
+      </c>
+      <c r="H150" s="27">
+        <v>1.049698E-42</v>
+      </c>
+      <c r="I150" s="27">
+        <v>8.8112460000000001E-43</v>
+      </c>
+      <c r="J150" s="27">
+        <v>1.6367159999999999E-42</v>
+      </c>
+      <c r="K150" s="27">
+        <v>2.0145120000000002E-42</v>
+      </c>
+      <c r="L150" s="27">
+        <v>5.870179E-43</v>
+      </c>
+      <c r="M150" s="27">
+        <v>2.522623E-43</v>
+      </c>
+      <c r="N150" s="27">
+        <v>4.910148E-42</v>
+      </c>
+      <c r="O150" s="27">
+        <v>8.3928020000000008E-43</v>
+      </c>
+      <c r="P150" s="27">
+        <v>5.870179E-43</v>
+      </c>
+      <c r="Q150" s="27">
+        <v>2.350463E-42</v>
+      </c>
+      <c r="R150" s="27">
+        <v>2.1400450000000001E-42</v>
+      </c>
+      <c r="S150" s="27">
+        <v>5.0332899999999998E-43</v>
+      </c>
+      <c r="T150" s="27">
+        <v>1.6785599999999999E-42</v>
+      </c>
+      <c r="U150" s="27">
+        <v>1.217076E-42</v>
+      </c>
+      <c r="V150" s="27">
+        <v>2.1400450000000001E-42</v>
+      </c>
+      <c r="W150" s="27">
+        <v>1.255334E-43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151" s="25">
+        <v>6</v>
+      </c>
+      <c r="B151" s="27">
+        <v>23.168279999999999</v>
+      </c>
+      <c r="C151" s="27">
+        <v>1044.231</v>
+      </c>
+      <c r="D151" s="27">
+        <v>732.79190000000006</v>
+      </c>
+      <c r="E151" s="27">
+        <v>539.57389999999998</v>
+      </c>
+      <c r="F151" s="27">
+        <v>5.4066580000000002</v>
+      </c>
+      <c r="G151" s="27">
+        <v>1.605567</v>
+      </c>
+      <c r="H151" s="27">
+        <v>3.1255959999999998</v>
+      </c>
+      <c r="I151" s="27">
+        <v>2.4512139999999998</v>
+      </c>
+      <c r="J151" s="27">
+        <v>3.9700880000000001</v>
+      </c>
+      <c r="K151" s="27">
+        <v>4.8161490000000002</v>
+      </c>
+      <c r="L151" s="27">
+        <v>2.4512299999999998</v>
+      </c>
+      <c r="M151" s="27">
+        <v>0.33852759999999998</v>
+      </c>
+      <c r="N151" s="27">
+        <v>4.3927250000000004</v>
+      </c>
+      <c r="O151" s="27">
+        <v>1.098341</v>
+      </c>
+      <c r="P151" s="27">
+        <v>2.7029580000000002</v>
+      </c>
+      <c r="Q151" s="27">
+        <v>1.7752749999999999</v>
+      </c>
+      <c r="R151" s="27">
+        <v>2.8722799999999999</v>
+      </c>
+      <c r="S151" s="27">
+        <v>1.0147930000000001</v>
+      </c>
+      <c r="T151" s="27">
+        <v>2.9563320000000002</v>
+      </c>
+      <c r="U151" s="27">
+        <v>0.50780590000000003</v>
+      </c>
+      <c r="V151" s="27">
+        <v>3.1254469999999999</v>
+      </c>
+      <c r="W151" s="27">
+        <v>1.0981780000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="25">
+        <v>7</v>
+      </c>
+      <c r="B152" s="27">
+        <v>47.027799999999999</v>
+      </c>
+      <c r="C152" s="27">
+        <v>4986.299</v>
+      </c>
+      <c r="D152" s="27">
+        <v>2802.0619999999999</v>
+      </c>
+      <c r="E152" s="27">
+        <v>6890.1610000000001</v>
+      </c>
+      <c r="F152" s="27">
+        <v>457.46899999999999</v>
+      </c>
+      <c r="G152" s="27">
+        <v>52.173839999999998</v>
+      </c>
+      <c r="H152" s="27">
+        <v>520.13570000000004</v>
+      </c>
+      <c r="I152" s="27">
+        <v>90.775739999999999</v>
+      </c>
+      <c r="J152" s="27">
+        <v>375.67200000000003</v>
+      </c>
+      <c r="K152" s="27">
+        <v>592.70809999999994</v>
+      </c>
+      <c r="L152" s="27">
+        <v>395.79669999999999</v>
+      </c>
+      <c r="M152" s="27">
+        <v>108.24290000000001</v>
+      </c>
+      <c r="N152" s="27">
+        <v>524.89800000000002</v>
+      </c>
+      <c r="O152" s="27">
+        <v>161.53139999999999</v>
+      </c>
+      <c r="P152" s="27">
+        <v>46.965350000000001</v>
+      </c>
+      <c r="Q152" s="27">
+        <v>104.3233</v>
+      </c>
+      <c r="R152" s="27">
+        <v>125.55629999999999</v>
+      </c>
+      <c r="S152" s="27">
+        <v>138.5942</v>
+      </c>
+      <c r="T152" s="27">
+        <v>156.2295</v>
+      </c>
+      <c r="U152" s="27">
+        <v>49.409849999999999</v>
+      </c>
+      <c r="V152" s="27">
+        <v>362.18779999999998</v>
+      </c>
+      <c r="W152" s="27">
+        <v>350.04270000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" s="25">
+        <v>8</v>
+      </c>
+      <c r="B153" s="27">
+        <v>2.2202859999999999E-8</v>
+      </c>
+      <c r="C153" s="27">
+        <v>1.0213319999999999E-6</v>
+      </c>
+      <c r="D153" s="27">
+        <v>6.2501050000000002E-7</v>
+      </c>
+      <c r="E153" s="27">
+        <v>5.7394390000000003E-7</v>
+      </c>
+      <c r="F153" s="27">
+        <v>4.2229839999999999E-9</v>
+      </c>
+      <c r="G153" s="27">
+        <v>1.9671730000000001E-9</v>
+      </c>
+      <c r="H153" s="27">
+        <v>3.9010419999999998E-9</v>
+      </c>
+      <c r="I153" s="27">
+        <v>1.4320839999999999E-9</v>
+      </c>
+      <c r="J153" s="27">
+        <v>1.8606E-9</v>
+      </c>
+      <c r="K153" s="27">
+        <v>1.9316490000000001E-9</v>
+      </c>
+      <c r="L153" s="27">
+        <v>5.7238969999999999E-9</v>
+      </c>
+      <c r="M153" s="27">
+        <v>1.503134E-9</v>
+      </c>
+      <c r="N153" s="27">
+        <v>2.8619490000000001E-9</v>
+      </c>
+      <c r="O153" s="27">
+        <v>1.39434E-9</v>
+      </c>
+      <c r="P153" s="27">
+        <v>1.7185009999999999E-9</v>
+      </c>
+      <c r="Q153" s="27">
+        <v>2.7553750000000001E-9</v>
+      </c>
+      <c r="R153" s="27">
+        <v>2.2180659999999999E-9</v>
+      </c>
+      <c r="S153" s="27">
+        <v>8.2372610000000001E-10</v>
+      </c>
+      <c r="T153" s="27">
+        <v>2.7198499999999999E-9</v>
+      </c>
+      <c r="U153" s="27">
+        <v>1.8250749999999999E-9</v>
+      </c>
+      <c r="V153" s="27">
+        <v>2.2180659999999999E-9</v>
+      </c>
+      <c r="W153" s="27">
+        <v>6.4388290000000005E-10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154" s="25">
+        <v>9</v>
+      </c>
+      <c r="B154" s="27">
+        <v>1.8296789999999999E-26</v>
+      </c>
+      <c r="C154" s="27">
+        <v>7.8579840000000001E-25</v>
+      </c>
+      <c r="D154" s="27">
+        <v>5.2010489999999998E-25</v>
+      </c>
+      <c r="E154" s="27">
+        <v>5.2345620000000002E-25</v>
+      </c>
+      <c r="F154" s="27">
+        <v>3.9748759999999999E-27</v>
+      </c>
+      <c r="G154" s="27">
+        <v>1.832107E-27</v>
+      </c>
+      <c r="H154" s="27">
+        <v>3.1508629999999999E-27</v>
+      </c>
+      <c r="I154" s="27">
+        <v>1.321739E-27</v>
+      </c>
+      <c r="J154" s="27">
+        <v>1.009633E-27</v>
+      </c>
+      <c r="K154" s="27">
+        <v>1.545856E-27</v>
+      </c>
+      <c r="L154" s="27">
+        <v>3.8653280000000003E-27</v>
+      </c>
+      <c r="M154" s="27">
+        <v>4.3434009999999997E-28</v>
+      </c>
+      <c r="N154" s="27">
+        <v>1.3571040000000001E-27</v>
+      </c>
+      <c r="O154" s="27">
+        <v>2.0712910000000001E-27</v>
+      </c>
+      <c r="P154" s="27">
+        <v>1.110945E-27</v>
+      </c>
+      <c r="Q154" s="27">
+        <v>1.0638239999999999E-27</v>
+      </c>
+      <c r="R154" s="27">
+        <v>8.042743E-28</v>
+      </c>
+      <c r="S154" s="27">
+        <v>1.308471E-27</v>
+      </c>
+      <c r="T154" s="27">
+        <v>1.1888370000000001E-27</v>
+      </c>
+      <c r="U154" s="27">
+        <v>7.1796070000000004E-28</v>
+      </c>
+      <c r="V154" s="27">
+        <v>1.7592780000000001E-27</v>
+      </c>
+      <c r="W154" s="27">
+        <v>4.0939769999999998E-28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" s="25">
+        <v>10</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V155" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W155" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" s="25">
+        <v>11</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V156" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W156" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="25">
+        <v>12</v>
+      </c>
+      <c r="B157" s="27">
+        <v>4.5099259999999999E-32</v>
+      </c>
+      <c r="C157" s="27">
+        <v>2.088096E-30</v>
+      </c>
+      <c r="D157" s="27">
+        <v>1.15409E-30</v>
+      </c>
+      <c r="E157" s="27">
+        <v>1.267289E-30</v>
+      </c>
+      <c r="F157" s="27">
+        <v>2.913412E-33</v>
+      </c>
+      <c r="G157" s="27">
+        <v>4.6767929999999997E-33</v>
+      </c>
+      <c r="H157" s="27">
+        <v>1.043146E-32</v>
+      </c>
+      <c r="I157" s="27">
+        <v>4.4467870000000001E-33</v>
+      </c>
+      <c r="J157" s="27">
+        <v>2.3767309999999998E-33</v>
+      </c>
+      <c r="K157" s="27">
+        <v>2.836743E-33</v>
+      </c>
+      <c r="L157" s="27">
+        <v>1.1581489999999999E-32</v>
+      </c>
+      <c r="M157" s="27">
+        <v>6.9001870000000002E-34</v>
+      </c>
+      <c r="N157" s="27">
+        <v>2.3767309999999998E-33</v>
+      </c>
+      <c r="O157" s="27">
+        <v>4.5234560000000001E-33</v>
+      </c>
+      <c r="P157" s="27">
+        <v>3.06675E-33</v>
+      </c>
+      <c r="Q157" s="27">
+        <v>3.2200869999999999E-33</v>
+      </c>
+      <c r="R157" s="27">
+        <v>5.5968179999999997E-33</v>
+      </c>
+      <c r="S157" s="27">
+        <v>2.300062E-34</v>
+      </c>
+      <c r="T157" s="27">
+        <v>2.990081E-33</v>
+      </c>
+      <c r="U157" s="27">
+        <v>2.836743E-33</v>
+      </c>
+      <c r="V157" s="27">
+        <v>6.2868370000000002E-33</v>
+      </c>
+      <c r="W157" s="27">
+        <v>2.146725E-33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="25">
+        <v>13</v>
+      </c>
+      <c r="B158" s="27">
+        <v>0.23943030000000001</v>
+      </c>
+      <c r="C158" s="27">
+        <v>11.686590000000001</v>
+      </c>
+      <c r="D158" s="27">
+        <v>6.9099579999999996</v>
+      </c>
+      <c r="E158" s="27">
+        <v>5.3464780000000003</v>
+      </c>
+      <c r="F158" s="27">
+        <v>9.0265220000000004E-3</v>
+      </c>
+      <c r="G158" s="27">
+        <v>4.0224290000000001E-3</v>
+      </c>
+      <c r="H158" s="27">
+        <v>7.9323249999999998E-2</v>
+      </c>
+      <c r="I158" s="27">
+        <v>1.8076990000000001E-2</v>
+      </c>
+      <c r="J158" s="27">
+        <v>2.4110630000000001E-2</v>
+      </c>
+      <c r="K158" s="27">
+        <v>1.204334E-2</v>
+      </c>
+      <c r="L158" s="27">
+        <v>3.213154E-2</v>
+      </c>
+      <c r="M158" s="27">
+        <v>2.0112139999999999E-3</v>
+      </c>
+      <c r="N158" s="27">
+        <v>5.2219740000000001E-2</v>
+      </c>
+      <c r="O158" s="27">
+        <v>2.2099420000000002E-2</v>
+      </c>
+      <c r="P158" s="27">
+        <v>3.0168220000000002E-3</v>
+      </c>
+      <c r="Q158" s="27">
+        <v>1.606577E-2</v>
+      </c>
+      <c r="R158" s="27">
+        <v>1.304895E-2</v>
+      </c>
+      <c r="S158" s="27">
+        <v>1.003213E-2</v>
+      </c>
+      <c r="T158" s="27">
+        <v>5.0280359999999996E-3</v>
+      </c>
+      <c r="U158" s="27">
+        <v>8.0448580000000002E-3</v>
+      </c>
+      <c r="V158" s="27">
+        <v>8.0448580000000002E-3</v>
+      </c>
+      <c r="W158" s="27">
+        <v>3.9170789999999997E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="25">
+        <v>14</v>
+      </c>
+      <c r="B159" s="27">
+        <v>110.7788</v>
+      </c>
+      <c r="C159" s="27">
+        <v>5781.3239999999996</v>
+      </c>
+      <c r="D159" s="27">
+        <v>3526.3229999999999</v>
+      </c>
+      <c r="E159" s="27">
+        <v>2078.8409999999999</v>
+      </c>
+      <c r="F159" s="27">
+        <v>14.63176</v>
+      </c>
+      <c r="G159" s="27">
+        <v>7.1256959999999996</v>
+      </c>
+      <c r="H159" s="27">
+        <v>15.69107</v>
+      </c>
+      <c r="I159" s="27">
+        <v>9.9440740000000005</v>
+      </c>
+      <c r="J159" s="27">
+        <v>24.975020000000001</v>
+      </c>
+      <c r="K159" s="27">
+        <v>24.99756</v>
+      </c>
+      <c r="L159" s="27">
+        <v>27.201070000000001</v>
+      </c>
+      <c r="M159" s="27">
+        <v>8.759779</v>
+      </c>
+      <c r="N159" s="27">
+        <v>26.647379999999998</v>
+      </c>
+      <c r="O159" s="27">
+        <v>5.0136979999999998</v>
+      </c>
+      <c r="P159" s="27">
+        <v>11.71461</v>
+      </c>
+      <c r="Q159" s="27">
+        <v>11.40939</v>
+      </c>
+      <c r="R159" s="27">
+        <v>7.6831269999999998</v>
+      </c>
+      <c r="S159" s="27">
+        <v>3.1269399999999998</v>
+      </c>
+      <c r="T159" s="27">
+        <v>10.18343</v>
+      </c>
+      <c r="U159" s="27">
+        <v>6.6588750000000001</v>
+      </c>
+      <c r="V159" s="27">
+        <v>19.01906</v>
+      </c>
+      <c r="W159" s="27">
+        <v>23.214580000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="25">
+        <v>15</v>
+      </c>
+      <c r="B160" s="27">
+        <v>50.501309999999997</v>
+      </c>
+      <c r="C160" s="27">
+        <v>2514.5149999999999</v>
+      </c>
+      <c r="D160" s="27">
+        <v>1579.876</v>
+      </c>
+      <c r="E160" s="27">
+        <v>995.18089999999995</v>
+      </c>
+      <c r="F160" s="27">
+        <v>5.9454459999999996</v>
+      </c>
+      <c r="G160" s="27">
+        <v>4.0723560000000001</v>
+      </c>
+      <c r="H160" s="27">
+        <v>21.614999999999998</v>
+      </c>
+      <c r="I160" s="27">
+        <v>8.2625670000000007</v>
+      </c>
+      <c r="J160" s="27">
+        <v>19.46949</v>
+      </c>
+      <c r="K160" s="27">
+        <v>12.833830000000001</v>
+      </c>
+      <c r="L160" s="27">
+        <v>19.171279999999999</v>
+      </c>
+      <c r="M160" s="27">
+        <v>1.1959360000000001</v>
+      </c>
+      <c r="N160" s="27">
+        <v>33.120750000000001</v>
+      </c>
+      <c r="O160" s="27">
+        <v>3.5675599999999998</v>
+      </c>
+      <c r="P160" s="27">
+        <v>10.436680000000001</v>
+      </c>
+      <c r="Q160" s="27">
+        <v>5.2631480000000002</v>
+      </c>
+      <c r="R160" s="27">
+        <v>3.8826849999999999</v>
+      </c>
+      <c r="S160" s="27">
+        <v>1.6333869999999999</v>
+      </c>
+      <c r="T160" s="27">
+        <v>27.929510000000001</v>
+      </c>
+      <c r="U160" s="27">
+        <v>6.1930779999999999</v>
+      </c>
+      <c r="V160" s="27">
+        <v>7.8067359999999999</v>
+      </c>
+      <c r="W160" s="27">
+        <v>8.2957630000000009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="25">
+        <v>16</v>
+      </c>
+      <c r="B161" s="27">
+        <v>231.81190000000001</v>
+      </c>
+      <c r="C161" s="27">
+        <v>10663.35</v>
+      </c>
+      <c r="D161" s="27">
+        <v>6525.5050000000001</v>
+      </c>
+      <c r="E161" s="27">
+        <v>5992.3379999999997</v>
+      </c>
+      <c r="F161" s="27">
+        <v>44.090620000000001</v>
+      </c>
+      <c r="G161" s="27">
+        <v>20.538530000000002</v>
+      </c>
+      <c r="H161" s="27">
+        <v>40.729349999999997</v>
+      </c>
+      <c r="I161" s="27">
+        <v>14.95187</v>
+      </c>
+      <c r="J161" s="27">
+        <v>19.425840000000001</v>
+      </c>
+      <c r="K161" s="27">
+        <v>20.167639999999999</v>
+      </c>
+      <c r="L161" s="27">
+        <v>59.761110000000002</v>
+      </c>
+      <c r="M161" s="27">
+        <v>15.693669999999999</v>
+      </c>
+      <c r="N161" s="27">
+        <v>29.880549999999999</v>
+      </c>
+      <c r="O161" s="27">
+        <v>14.557790000000001</v>
+      </c>
+      <c r="P161" s="27">
+        <v>17.942240000000002</v>
+      </c>
+      <c r="Q161" s="27">
+        <v>28.767859999999999</v>
+      </c>
+      <c r="R161" s="27">
+        <v>23.158010000000001</v>
+      </c>
+      <c r="S161" s="27">
+        <v>8.6002220000000005</v>
+      </c>
+      <c r="T161" s="27">
+        <v>28.39696</v>
+      </c>
+      <c r="U161" s="27">
+        <v>19.054939999999998</v>
+      </c>
+      <c r="V161" s="27">
+        <v>23.158010000000001</v>
+      </c>
+      <c r="W161" s="27">
+        <v>6.7225450000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B163" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" s="24"/>
+      <c r="B164" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L164" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M164" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N164" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O164" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P164" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q164" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R164" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S164" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T164" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U164" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V164" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W164" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A165" s="25">
+        <v>2</v>
+      </c>
+      <c r="B165" s="27">
+        <v>-343636.2</v>
+      </c>
+      <c r="C165" s="27">
+        <v>-1187232000</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H165" s="27">
+        <v>1601954000</v>
+      </c>
+      <c r="I165" s="27">
+        <v>-6286568000</v>
+      </c>
+      <c r="J165" s="27">
+        <v>314984600</v>
+      </c>
+      <c r="K165" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L165" s="27">
+        <v>3.0429189999999998E+34</v>
+      </c>
+      <c r="M165" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N165" s="27">
+        <v>-4.4387340000000001E+24</v>
+      </c>
+      <c r="O165" s="27">
+        <v>8.5973470000000005E+25</v>
+      </c>
+      <c r="P165" s="27">
+        <v>2.4072969999999999E+24</v>
+      </c>
+      <c r="Q165" s="27">
+        <v>2.1396630000000002E+23</v>
+      </c>
+      <c r="R165" s="27">
+        <v>-5.5932100000000004E+24</v>
+      </c>
+      <c r="S165" s="27">
+        <v>8.2377759999999998E+24</v>
+      </c>
+      <c r="T165" s="27">
+        <v>-3.0143499999999998E+24</v>
+      </c>
+      <c r="U165" s="27">
+        <v>-1.8614040000000002E+23</v>
+      </c>
+      <c r="V165" s="27">
+        <v>-2.254853E+25</v>
+      </c>
+      <c r="W165" s="27">
+        <v>2.5560199999999998E+25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166" s="25">
+        <v>3</v>
+      </c>
+      <c r="B166" s="27">
+        <v>5944.3789999999999</v>
+      </c>
+      <c r="C166" s="27">
+        <v>-17699.080000000002</v>
+      </c>
+      <c r="D166" s="27">
+        <v>-38088.11</v>
+      </c>
+      <c r="E166" s="27">
+        <v>111939.6</v>
+      </c>
+      <c r="F166" s="27">
+        <v>4449308</v>
+      </c>
+      <c r="G166" s="27">
+        <v>93510300</v>
+      </c>
+      <c r="H166" s="27">
+        <v>-3051671</v>
+      </c>
+      <c r="I166" s="27">
+        <v>107439400</v>
+      </c>
+      <c r="J166" s="27">
+        <v>65513220</v>
+      </c>
+      <c r="K166" s="27">
+        <v>66265520</v>
+      </c>
+      <c r="L166" s="27">
+        <v>-604640000</v>
+      </c>
+      <c r="M166" s="27">
+        <v>105503700</v>
+      </c>
+      <c r="N166" s="27">
+        <v>-31727300</v>
+      </c>
+      <c r="O166" s="27">
+        <v>-100064200</v>
+      </c>
+      <c r="P166" s="27">
+        <v>171046000</v>
+      </c>
+      <c r="Q166" s="27">
+        <v>80703630</v>
+      </c>
+      <c r="R166" s="27">
+        <v>-297832200</v>
+      </c>
+      <c r="S166" s="27">
+        <v>95644070</v>
+      </c>
+      <c r="T166" s="27">
+        <v>-136052100</v>
+      </c>
+      <c r="U166" s="27">
+        <v>-187932900</v>
+      </c>
+      <c r="V166" s="27">
+        <v>91740230</v>
+      </c>
+      <c r="W166" s="27">
+        <v>-47149220</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167" s="25">
+        <v>4</v>
+      </c>
+      <c r="B167" s="27">
+        <v>1.03138E+68</v>
+      </c>
+      <c r="C167" s="27">
+        <v>-7.3877760000000002E+68</v>
+      </c>
+      <c r="D167" s="27">
+        <v>1.539054E+69</v>
+      </c>
+      <c r="E167" s="27">
+        <v>-1.4924770000000001E+68</v>
+      </c>
+      <c r="F167" s="27">
+        <v>2.3512529999999999E+70</v>
+      </c>
+      <c r="G167" s="27">
+        <v>1.7084719999999999E+71</v>
+      </c>
+      <c r="H167" s="27">
+        <v>5.525154E+70</v>
+      </c>
+      <c r="I167" s="27">
+        <v>4.3851359999999997E+70</v>
+      </c>
+      <c r="J167" s="27">
+        <v>1.5766410000000001E+71</v>
+      </c>
+      <c r="K167" s="27">
+        <v>-5.1029860000000002E+70</v>
+      </c>
+      <c r="L167" s="27">
+        <v>-1.2637360000000001E+71</v>
+      </c>
+      <c r="M167" s="27">
+        <v>7.3550939999999999E+71</v>
+      </c>
+      <c r="N167" s="27">
+        <v>-9.8269129999999999E+70</v>
+      </c>
+      <c r="O167" s="27">
+        <v>1.3271050000000001E+71</v>
+      </c>
+      <c r="P167" s="27">
+        <v>1.4076569999999999E+71</v>
+      </c>
+      <c r="Q167" s="27">
+        <v>-5.3879380000000003E+70</v>
+      </c>
+      <c r="R167" s="27">
+        <v>-1.245796E+71</v>
+      </c>
+      <c r="S167" s="27">
+        <v>-1.046978E+71</v>
+      </c>
+      <c r="T167" s="27">
+        <v>-2.058683E+71</v>
+      </c>
+      <c r="U167" s="27">
+        <v>-4.3605390000000003E+70</v>
+      </c>
+      <c r="V167" s="27">
+        <v>2.4713630000000001E+70</v>
+      </c>
+      <c r="W167" s="27">
+        <v>2.29775E+71</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A168" s="25">
+        <v>5</v>
+      </c>
+      <c r="B168" s="27">
+        <v>-3.210409E+39</v>
+      </c>
+      <c r="C168" s="27">
+        <v>-4.276991E+40</v>
+      </c>
+      <c r="D168" s="27">
+        <v>4.0939429999999998E+40</v>
+      </c>
+      <c r="E168" s="27">
+        <v>4.9049460000000004E+40</v>
+      </c>
+      <c r="F168" s="27">
+        <v>3.4885819999999999E+43</v>
+      </c>
+      <c r="G168" s="27">
+        <v>-1.9079170000000001E+43</v>
+      </c>
+      <c r="H168" s="27">
+        <v>-1.7294450000000001E+44</v>
+      </c>
+      <c r="I168" s="27">
+        <v>-5.5079299999999995E+43</v>
+      </c>
+      <c r="J168" s="27">
+        <v>-6.766086E+43</v>
+      </c>
+      <c r="K168" s="27">
+        <v>2.101896E+43</v>
+      </c>
+      <c r="L168" s="27">
+        <v>-3.6764989999999996E+44</v>
+      </c>
+      <c r="M168" s="27">
+        <v>-1.0543499999999999E+44</v>
+      </c>
+      <c r="N168" s="27">
+        <v>1.715534E+44</v>
+      </c>
+      <c r="O168" s="27">
+        <v>3.1560080000000001E+43</v>
+      </c>
+      <c r="P168" s="27">
+        <v>-1.9059039999999999E+44</v>
+      </c>
+      <c r="Q168" s="27">
+        <v>8.6330020000000001E+43</v>
+      </c>
+      <c r="R168" s="27">
+        <v>1.008366E+44</v>
+      </c>
+      <c r="S168" s="27">
+        <v>4.6118799999999997E+43</v>
+      </c>
+      <c r="T168" s="27">
+        <v>6.9157410000000003E+43</v>
+      </c>
+      <c r="U168" s="27">
+        <v>1.623194E+44</v>
+      </c>
+      <c r="V168" s="27">
+        <v>1.27084E+44</v>
+      </c>
+      <c r="W168" s="27">
+        <v>-5.8862090000000002E+44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A169" s="25">
+        <v>6</v>
+      </c>
+      <c r="B169" s="27">
+        <v>1.0360899999999999E-2</v>
+      </c>
+      <c r="C169" s="27">
+        <v>-6.1488949999999997E-3</v>
+      </c>
+      <c r="D169" s="27">
+        <v>-1.289646E-2</v>
+      </c>
+      <c r="E169" s="27">
+        <v>4.672287E-2</v>
+      </c>
+      <c r="F169" s="27">
+        <v>-13.83366</v>
+      </c>
+      <c r="G169" s="27">
+        <v>-14.27336</v>
+      </c>
+      <c r="H169" s="27">
+        <v>-32.02617</v>
+      </c>
+      <c r="I169" s="27">
+        <v>60.017000000000003</v>
+      </c>
+      <c r="J169" s="27">
+        <v>39.959690000000002</v>
+      </c>
+      <c r="K169" s="27">
+        <v>38.274979999999999</v>
+      </c>
+      <c r="L169" s="27">
+        <v>-50.303939999999997</v>
+      </c>
+      <c r="M169" s="27">
+        <v>-224.5016</v>
+      </c>
+      <c r="N169" s="27">
+        <v>-62.97589</v>
+      </c>
+      <c r="O169" s="27">
+        <v>55.758839999999999</v>
+      </c>
+      <c r="P169" s="27">
+        <v>36.371699999999997</v>
+      </c>
+      <c r="Q169" s="27">
+        <v>-63.786189999999998</v>
+      </c>
+      <c r="R169" s="27">
+        <v>49.468110000000003</v>
+      </c>
+      <c r="S169" s="27">
+        <v>17.293140000000001</v>
+      </c>
+      <c r="T169" s="27">
+        <v>56.914299999999997</v>
+      </c>
+      <c r="U169" s="27">
+        <v>209.14859999999999</v>
+      </c>
+      <c r="V169" s="27">
+        <v>25.50985</v>
+      </c>
+      <c r="W169" s="27">
+        <v>-50.723370000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" s="25">
+        <v>7</v>
+      </c>
+      <c r="B170" s="27">
+        <v>1.5777650000000001E-3</v>
+      </c>
+      <c r="C170" s="27">
+        <v>-1.9964369999999999E-4</v>
+      </c>
+      <c r="D170" s="27">
+        <v>-2.2471629999999999E-3</v>
+      </c>
+      <c r="E170" s="27">
+        <v>2.0480479999999998E-3</v>
+      </c>
+      <c r="F170" s="27">
+        <v>0.1032356</v>
+      </c>
+      <c r="G170" s="27">
+        <v>-1.060897</v>
+      </c>
+      <c r="H170" s="27">
+        <v>-0.1637622</v>
+      </c>
+      <c r="I170" s="27">
+        <v>1.843844</v>
+      </c>
+      <c r="J170" s="27">
+        <v>-0.64753070000000001</v>
+      </c>
+      <c r="K170" s="27">
+        <v>0.37776749999999998</v>
+      </c>
+      <c r="L170" s="27">
+        <v>-0.4376158</v>
+      </c>
+      <c r="M170" s="27">
+        <v>0.14557829999999999</v>
+      </c>
+      <c r="N170" s="27">
+        <v>-0.5047239</v>
+      </c>
+      <c r="O170" s="27">
+        <v>-0.33769700000000002</v>
+      </c>
+      <c r="P170" s="27">
+        <v>-1.817078</v>
+      </c>
+      <c r="Q170" s="27">
+        <v>0.15822810000000001</v>
+      </c>
+      <c r="R170" s="27">
+        <v>0.2114335</v>
+      </c>
+      <c r="S170" s="27">
+        <v>0.29905779999999998</v>
+      </c>
+      <c r="T170" s="27">
+        <v>-3.4025109999999997E-2</v>
+      </c>
+      <c r="U170" s="27">
+        <v>-1.8413330000000001</v>
+      </c>
+      <c r="V170" s="27">
+        <v>-0.16478119999999999</v>
+      </c>
+      <c r="W170" s="27">
+        <v>-0.19780120000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" s="25">
+        <v>8</v>
+      </c>
+      <c r="B171" s="27">
+        <v>5862332</v>
+      </c>
+      <c r="C171" s="27">
+        <v>3027697</v>
+      </c>
+      <c r="D171" s="27">
+        <v>-176139800</v>
+      </c>
+      <c r="E171" s="27">
+        <v>214347800</v>
+      </c>
+      <c r="F171" s="27">
+        <v>-79112350000</v>
+      </c>
+      <c r="G171" s="27">
+        <v>-84007630000</v>
+      </c>
+      <c r="H171" s="27">
+        <v>-22683010000</v>
+      </c>
+      <c r="I171" s="27">
+        <v>-61126400000</v>
+      </c>
+      <c r="J171" s="27">
+        <v>-106374600000</v>
+      </c>
+      <c r="K171" s="27">
+        <v>-111968100000</v>
+      </c>
+      <c r="L171" s="27">
+        <v>38008970000</v>
+      </c>
+      <c r="M171" s="27">
+        <v>-85017020000</v>
+      </c>
+      <c r="N171" s="27">
+        <v>-121747700000</v>
+      </c>
+      <c r="O171" s="27">
+        <v>-38017110000</v>
+      </c>
+      <c r="P171" s="27">
+        <v>-51425480000</v>
+      </c>
+      <c r="Q171" s="27">
+        <v>-29385040000</v>
+      </c>
+      <c r="R171" s="27">
+        <v>60936950000</v>
+      </c>
+      <c r="S171" s="27">
+        <v>-127100800000</v>
+      </c>
+      <c r="T171" s="27">
+        <v>23625110000</v>
+      </c>
+      <c r="U171" s="27">
+        <v>-78849460000</v>
+      </c>
+      <c r="V171" s="27">
+        <v>27509740000</v>
+      </c>
+      <c r="W171" s="27">
+        <v>-122114200000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A172" s="25">
+        <v>9</v>
+      </c>
+      <c r="B172" s="27">
+        <v>4.7092270000000004E+25</v>
+      </c>
+      <c r="C172" s="27">
+        <v>-1.839398E+26</v>
+      </c>
+      <c r="D172" s="27">
+        <v>5.5102100000000001E+25</v>
+      </c>
+      <c r="E172" s="27">
+        <v>4.1008009999999997E+26</v>
+      </c>
+      <c r="F172" s="27">
+        <v>1.001712E+29</v>
+      </c>
+      <c r="G172" s="27">
+        <v>-6.9274209999999997E+27</v>
+      </c>
+      <c r="H172" s="27">
+        <v>2.3422050000000001E+27</v>
+      </c>
+      <c r="I172" s="27">
+        <v>2.8492079999999999E+28</v>
+      </c>
+      <c r="J172" s="27">
+        <v>6.4968379999999996E+28</v>
+      </c>
+      <c r="K172" s="27">
+        <v>5.3500710000000001E+28</v>
+      </c>
+      <c r="L172" s="27">
+        <v>-6.161557E+28</v>
+      </c>
+      <c r="M172" s="27">
+        <v>8.35678E+28</v>
+      </c>
+      <c r="N172" s="27">
+        <v>-2.2398959999999998E+29</v>
+      </c>
+      <c r="O172" s="27">
+        <v>-6.3596939999999997E+28</v>
+      </c>
+      <c r="P172" s="27">
+        <v>-1.4990480000000001E+28</v>
+      </c>
+      <c r="Q172" s="27">
+        <v>3.8214E+28</v>
+      </c>
+      <c r="R172" s="27">
+        <v>4.6712379999999998E+28</v>
+      </c>
+      <c r="S172" s="27">
+        <v>3.111524E+28</v>
+      </c>
+      <c r="T172" s="27">
+        <v>-2.0994540000000002E+29</v>
+      </c>
+      <c r="U172" s="27">
+        <v>-2.595871E+29</v>
+      </c>
+      <c r="V172" s="27">
+        <v>2.6455809999999999E+28</v>
+      </c>
+      <c r="W172" s="27">
+        <v>7.3815680000000001E+28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" s="25">
+        <v>10</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V173" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W173" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" s="25">
+        <v>11</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="U174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="V174" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W174" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="25">
+        <v>12</v>
+      </c>
+      <c r="B175" s="27">
+        <v>-2.1006389999999998E+31</v>
+      </c>
+      <c r="C175" s="27">
+        <v>6.1281460000000004E+31</v>
+      </c>
+      <c r="D175" s="27">
+        <v>-3.2529389999999999E+32</v>
+      </c>
+      <c r="E175" s="27">
+        <v>1.216922E+32</v>
+      </c>
+      <c r="F175" s="27">
+        <v>-3.5265720000000001E+34</v>
+      </c>
+      <c r="G175" s="27">
+        <v>3.4398190000000001E+34</v>
+      </c>
+      <c r="H175" s="27">
+        <v>1.1597E+34</v>
+      </c>
+      <c r="I175" s="27">
+        <v>1.2477150000000001E+34</v>
+      </c>
+      <c r="J175" s="27">
+        <v>-8.2299440000000002E+33</v>
+      </c>
+      <c r="K175" s="27">
+        <v>-3.124781E+34</v>
+      </c>
+      <c r="L175" s="27">
+        <v>-8.4739619999999999E+33</v>
+      </c>
+      <c r="M175" s="27">
+        <v>1.254148E+35</v>
+      </c>
+      <c r="N175" s="27">
+        <v>-3.4182049999999998E+34</v>
+      </c>
+      <c r="O175" s="27">
+        <v>-2.692855E+34</v>
+      </c>
+      <c r="P175" s="27">
+        <v>-9.2147679999999996E+33</v>
+      </c>
+      <c r="Q175" s="27">
+        <v>-2.3865970000000001E+34</v>
+      </c>
+      <c r="R175" s="27">
+        <v>-1.01277E+34</v>
+      </c>
+      <c r="S175" s="27">
+        <v>-3.655011E+34</v>
+      </c>
+      <c r="T175" s="27">
+        <v>-2.8486839999999998E+34</v>
+      </c>
+      <c r="U175" s="27">
+        <v>2.0884390000000001E+34</v>
+      </c>
+      <c r="V175" s="27">
+        <v>4.5115280000000003E+33</v>
+      </c>
+      <c r="W175" s="27">
+        <v>9.4771230000000007E+34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="25">
+        <v>13</v>
+      </c>
+      <c r="B176" s="27">
+        <v>-3.5511529999999998</v>
+      </c>
+      <c r="C176" s="27">
+        <v>11.895659999999999</v>
+      </c>
+      <c r="D176" s="27">
+        <v>-34.224179999999997</v>
+      </c>
+      <c r="E176" s="27">
+        <v>0.83958960000000005</v>
+      </c>
+      <c r="F176" s="27">
+        <v>-17629.78</v>
+      </c>
+      <c r="G176" s="27">
+        <v>-36377.480000000003</v>
+      </c>
+      <c r="H176" s="27">
+        <v>3314.81</v>
+      </c>
+      <c r="I176" s="27">
+        <v>-4690.71</v>
+      </c>
+      <c r="J176" s="27">
+        <v>-1354.1590000000001</v>
+      </c>
+      <c r="K176" s="27">
+        <v>-11812.2</v>
+      </c>
+      <c r="L176" s="27">
+        <v>-1991.788</v>
+      </c>
+      <c r="M176" s="27">
+        <v>-22039.21</v>
+      </c>
+      <c r="N176" s="27">
+        <v>2255.7379999999998</v>
+      </c>
+      <c r="O176" s="27">
+        <v>17.796569999999999</v>
+      </c>
+      <c r="P176" s="27">
+        <v>-27606.06</v>
+      </c>
+      <c r="Q176" s="27">
+        <v>-3749.8180000000002</v>
+      </c>
+      <c r="R176" s="27">
+        <v>-3113.0430000000001</v>
+      </c>
+      <c r="S176" s="27">
+        <v>1341.046</v>
+      </c>
+      <c r="T176" s="27">
+        <v>-28322.89</v>
+      </c>
+      <c r="U176" s="27">
+        <v>-6250.9459999999999</v>
+      </c>
+      <c r="V176" s="27">
+        <v>-15632.2</v>
+      </c>
+      <c r="W176" s="27">
+        <v>-1584.654</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="25">
+        <v>14</v>
+      </c>
+      <c r="B177" s="27">
+        <v>-2.3138680000000002E-3</v>
+      </c>
+      <c r="C177" s="27">
+        <v>8.4464090000000002E-3</v>
+      </c>
+      <c r="D177" s="27">
+        <v>-2.2845359999999999E-2</v>
+      </c>
+      <c r="E177" s="27">
+        <v>1.1590630000000001E-3</v>
+      </c>
+      <c r="F177" s="27">
+        <v>17.623699999999999</v>
+      </c>
+      <c r="G177" s="27">
+        <v>5.6532730000000004</v>
+      </c>
+      <c r="H177" s="27">
+        <v>-10.033989999999999</v>
+      </c>
+      <c r="I177" s="27">
+        <v>-14.13076</v>
+      </c>
+      <c r="J177" s="27">
+        <v>2.240062</v>
+      </c>
+      <c r="K177" s="27">
+        <v>3.9353790000000002</v>
+      </c>
+      <c r="L177" s="27">
+        <v>9.1190499999999997</v>
+      </c>
+      <c r="M177" s="27">
+        <v>26.439350000000001</v>
+      </c>
+      <c r="N177" s="27">
+        <v>-12.75332</v>
+      </c>
+      <c r="O177" s="27">
+        <v>-40.590960000000003</v>
+      </c>
+      <c r="P177" s="27">
+        <v>4.8518410000000003</v>
+      </c>
+      <c r="Q177" s="27">
+        <v>2.771423</v>
+      </c>
+      <c r="R177" s="27">
+        <v>-4.2312329999999996</v>
+      </c>
+      <c r="S177" s="27">
+        <v>10.720750000000001</v>
+      </c>
+      <c r="T177" s="27">
+        <v>27.752520000000001</v>
+      </c>
+      <c r="U177" s="27">
+        <v>7.3207829999999996</v>
+      </c>
+      <c r="V177" s="27">
+        <v>0.30258410000000002</v>
+      </c>
+      <c r="W177" s="27">
+        <v>-12.60258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="25">
+        <v>15</v>
+      </c>
+      <c r="B178" s="27">
+        <v>4.1468E-3</v>
+      </c>
+      <c r="C178" s="27">
+        <v>2.5607109999999998E-3</v>
+      </c>
+      <c r="D178" s="27">
+        <v>-1.094057E-2</v>
+      </c>
+      <c r="E178" s="27">
+        <v>7.5178900000000002E-3</v>
+      </c>
+      <c r="F178" s="27">
+        <v>-3.005328</v>
+      </c>
+      <c r="G178" s="27">
+        <v>-0.83049189999999995</v>
+      </c>
+      <c r="H178" s="27">
+        <v>0.45598339999999998</v>
+      </c>
+      <c r="I178" s="27">
+        <v>-4.7204100000000002</v>
+      </c>
+      <c r="J178" s="27">
+        <v>13.81879</v>
+      </c>
+      <c r="K178" s="27">
+        <v>1.7062360000000001</v>
+      </c>
+      <c r="L178" s="27">
+        <v>9.9774650000000005</v>
+      </c>
+      <c r="M178" s="27">
+        <v>-81.823250000000002</v>
+      </c>
+      <c r="N178" s="27">
+        <v>2.4855589999999999</v>
+      </c>
+      <c r="O178" s="27">
+        <v>-53.59037</v>
+      </c>
+      <c r="P178" s="27">
+        <v>-20.375900000000001</v>
+      </c>
+      <c r="Q178" s="27">
+        <v>22.87593</v>
+      </c>
+      <c r="R178" s="27">
+        <v>25.583829999999999</v>
+      </c>
+      <c r="S178" s="27">
+        <v>-27.514230000000001</v>
+      </c>
+      <c r="T178" s="27">
+        <v>-7.6295140000000004</v>
+      </c>
+      <c r="U178" s="27">
+        <v>14.358510000000001</v>
+      </c>
+      <c r="V178" s="27">
+        <v>-16.511500000000002</v>
+      </c>
+      <c r="W178" s="27">
+        <v>31.337129999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="25">
+        <v>16</v>
+      </c>
+      <c r="B179" s="27">
+        <v>1.3299E-3</v>
+      </c>
+      <c r="C179" s="27">
+        <v>-1.1155710000000001E-3</v>
+      </c>
+      <c r="D179" s="27">
+        <v>-7.4795149999999999E-3</v>
+      </c>
+      <c r="E179" s="27">
+        <v>1.239792E-2</v>
+      </c>
+      <c r="F179" s="27">
+        <v>7.8411249999999999</v>
+      </c>
+      <c r="G179" s="27">
+        <v>-4.444261</v>
+      </c>
+      <c r="H179" s="27">
+        <v>-2.5028619999999999</v>
+      </c>
+      <c r="I179" s="27">
+        <v>-5.7862369999999999</v>
+      </c>
+      <c r="J179" s="27">
+        <v>9.5651069999999994</v>
+      </c>
+      <c r="K179" s="27">
+        <v>2.2559830000000001</v>
+      </c>
+      <c r="L179" s="27">
+        <v>2.7492670000000001</v>
+      </c>
+      <c r="M179" s="27">
+        <v>-0.64952600000000005</v>
+      </c>
+      <c r="N179" s="27">
+        <v>3.7048649999999999</v>
+      </c>
+      <c r="O179" s="27">
+        <v>-4.5309119999999998</v>
+      </c>
+      <c r="P179" s="27">
+        <v>-2.5271370000000002</v>
+      </c>
+      <c r="Q179" s="27">
+        <v>-0.74037109999999995</v>
+      </c>
+      <c r="R179" s="27">
+        <v>5.8548330000000002</v>
+      </c>
+      <c r="S179" s="27">
+        <v>-3.5773060000000001</v>
+      </c>
+      <c r="T179" s="27">
+        <v>-1.0159009999999999</v>
+      </c>
+      <c r="U179" s="27">
+        <v>3.7325050000000002</v>
+      </c>
+      <c r="V179" s="27">
+        <v>-4.6802539999999997</v>
+      </c>
+      <c r="W179" s="27">
+        <v>-0.73328079999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" s="6"/>
+    </row>
+    <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B181" s="30"/>
+    </row>
+    <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="30"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B186" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="B187" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" t="s">
+        <v>17</v>
+      </c>
+      <c r="J187" t="s">
+        <v>18</v>
+      </c>
+      <c r="K187" t="s">
+        <v>19</v>
+      </c>
+      <c r="L187" t="s">
+        <v>20</v>
+      </c>
+      <c r="M187" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" t="s">
+        <v>22</v>
+      </c>
+      <c r="O187" t="s">
+        <v>23</v>
+      </c>
+      <c r="P187" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>25</v>
+      </c>
+      <c r="R187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>2</v>
+      </c>
+      <c r="B188" s="3">
+        <v>3.9856289999999997E-7</v>
+      </c>
+      <c r="C188" s="3">
+        <v>2.3483889999999998E-8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>38</v>
+      </c>
+      <c r="G188" t="s">
+        <v>38</v>
+      </c>
+      <c r="H188" s="3">
+        <v>4.2400529999999999E-7</v>
+      </c>
+      <c r="I188" s="3">
+        <v>2.4400480000000001E-8</v>
+      </c>
+      <c r="J188" s="3">
+        <v>1.362137E-7</v>
+      </c>
+      <c r="K188" t="s">
+        <v>38</v>
+      </c>
+      <c r="L188" s="3">
+        <v>3.2516900000000002E-32</v>
+      </c>
+      <c r="M188" t="s">
+        <v>38</v>
+      </c>
+      <c r="N188" s="3">
+        <v>1.6357999999999999E-23</v>
+      </c>
+      <c r="O188" s="3">
+        <v>7.9687450000000007E-24</v>
+      </c>
+      <c r="P188" s="3">
+        <v>9.8217500000000004E-24</v>
+      </c>
+      <c r="Q188" s="3">
+        <v>1.5747900000000001E-23</v>
+      </c>
+      <c r="R188" s="3">
+        <v>1.2676919999999999E-23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>3</v>
+      </c>
+      <c r="B189" s="3">
+        <v>2.5620850000000001E-5</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1.1911129999999999E-3</v>
+      </c>
+      <c r="D189" s="3">
+        <v>7.6324520000000003E-4</v>
+      </c>
+      <c r="E189" s="3">
+        <v>6.0772660000000004E-4</v>
+      </c>
+      <c r="F189" s="3">
+        <v>5.8799859999999996E-6</v>
+      </c>
+      <c r="G189" s="3">
+        <v>3.4844360000000002E-6</v>
+      </c>
+      <c r="H189" s="3">
+        <v>3.5843569999999998E-6</v>
+      </c>
+      <c r="I189" s="3">
+        <v>4.1044610000000002E-6</v>
+      </c>
+      <c r="J189" s="3">
+        <v>3.5177429999999999E-6</v>
+      </c>
+      <c r="K189" s="3">
+        <v>4.0071019999999998E-6</v>
+      </c>
+      <c r="L189" s="3">
+        <v>1.0760759999999999E-6</v>
+      </c>
+      <c r="M189" s="3">
+        <v>1.3681540000000001E-6</v>
+      </c>
+      <c r="N189" s="3">
+        <v>4.0557809999999999E-6</v>
+      </c>
+      <c r="O189" s="3">
+        <v>1.5475E-6</v>
+      </c>
+      <c r="P189" s="3">
+        <v>2.8823459999999999E-6</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>2.6210130000000001E-6</v>
+      </c>
+      <c r="R189" s="3">
+        <v>9.9408909999999999E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>4</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5.8639130000000002E-69</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2.6898809999999999E-67</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1.9063779999999999E-67</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1.273045E-67</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1.4790749999999999E-69</v>
+      </c>
+      <c r="G190" s="3">
+        <v>4.010628E-70</v>
+      </c>
+      <c r="H190" s="3">
+        <v>7.3046549999999997E-70</v>
+      </c>
+      <c r="I190" s="3">
+        <v>5.4853580000000002E-70</v>
+      </c>
+      <c r="J190" s="3">
+        <v>8.5817289999999994E-70</v>
+      </c>
+      <c r="K190" s="3">
+        <v>1.087979E-69</v>
+      </c>
+      <c r="L190" s="3">
+        <v>5.001437E-70</v>
+      </c>
+      <c r="M190" s="3">
+        <v>9.0579839999999999E-71</v>
+      </c>
+      <c r="N190" s="3">
+        <v>2.0454870000000001E-69</v>
+      </c>
+      <c r="O190" s="3">
+        <v>2.7768220000000002E-70</v>
+      </c>
+      <c r="P190" s="3">
+        <v>5.3126789999999998E-70</v>
+      </c>
+      <c r="Q190" s="3">
+        <v>6.2792529999999995E-70</v>
+      </c>
+      <c r="R190" s="3">
+        <v>6.4214920000000006E-70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>5</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1.195556E-41</v>
+      </c>
+      <c r="C191" s="3">
+        <v>5.6095479999999999E-40</v>
+      </c>
+      <c r="D191" s="3">
+        <v>3.6081869999999999E-40</v>
+      </c>
+      <c r="E191" s="3">
+        <v>2.7390179999999999E-40</v>
+      </c>
+      <c r="F191" s="3">
+        <v>3.2734319999999998E-42</v>
+      </c>
+      <c r="G191" s="3">
+        <v>9.2296910000000002E-43</v>
+      </c>
+      <c r="H191" s="3">
+        <v>1.049698E-42</v>
+      </c>
+      <c r="I191" s="3">
+        <v>8.8112460000000001E-43</v>
+      </c>
+      <c r="J191" s="3">
+        <v>1.6367159999999999E-42</v>
+      </c>
+      <c r="K191" s="3">
+        <v>2.0145120000000002E-42</v>
+      </c>
+      <c r="L191" s="3">
+        <v>5.870179E-43</v>
+      </c>
+      <c r="M191" s="3">
+        <v>2.522623E-43</v>
+      </c>
+      <c r="N191" s="3">
+        <v>4.910148E-42</v>
+      </c>
+      <c r="O191" s="3">
+        <v>8.3928020000000008E-43</v>
+      </c>
+      <c r="P191" s="3">
+        <v>5.870179E-43</v>
+      </c>
+      <c r="Q191" s="3">
+        <v>2.350463E-42</v>
+      </c>
+      <c r="R191" s="3">
+        <v>2.1400450000000001E-42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>6</v>
+      </c>
+      <c r="B192" s="3">
+        <v>23.168279999999999</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1044.231</v>
+      </c>
+      <c r="D192" s="3">
+        <v>732.79190000000006</v>
+      </c>
+      <c r="E192" s="3">
+        <v>539.57389999999998</v>
+      </c>
+      <c r="F192" s="3">
+        <v>5.4066580000000002</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1.605567</v>
+      </c>
+      <c r="H192" s="3">
+        <v>3.1255959999999998</v>
+      </c>
+      <c r="I192" s="3">
+        <v>2.4512139999999998</v>
+      </c>
+      <c r="J192" s="3">
+        <v>3.9700880000000001</v>
+      </c>
+      <c r="K192" s="3">
+        <v>4.8161490000000002</v>
+      </c>
+      <c r="L192" s="3">
+        <v>2.4512299999999998</v>
+      </c>
+      <c r="M192" s="3">
+        <v>0.33852759999999998</v>
+      </c>
+      <c r="N192" s="3">
+        <v>4.3927250000000004</v>
+      </c>
+      <c r="O192" s="3">
+        <v>1.098341</v>
+      </c>
+      <c r="P192" s="3">
+        <v>2.7029580000000002</v>
+      </c>
+      <c r="Q192" s="3">
+        <v>1.7752749999999999</v>
+      </c>
+      <c r="R192" s="3">
+        <v>2.8722799999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>7</v>
+      </c>
+      <c r="B193" s="3">
+        <v>47.027799999999999</v>
+      </c>
+      <c r="C193" s="3">
+        <v>4986.299</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2802.0619999999999</v>
+      </c>
+      <c r="E193" s="3">
+        <v>6890.1610000000001</v>
+      </c>
+      <c r="F193" s="3">
+        <v>457.46899999999999</v>
+      </c>
+      <c r="G193" s="3">
+        <v>52.173839999999998</v>
+      </c>
+      <c r="H193" s="3">
+        <v>520.13570000000004</v>
+      </c>
+      <c r="I193" s="3">
+        <v>90.775739999999999</v>
+      </c>
+      <c r="J193" s="3">
+        <v>375.67200000000003</v>
+      </c>
+      <c r="K193" s="3">
+        <v>592.70809999999994</v>
+      </c>
+      <c r="L193" s="3">
+        <v>395.79669999999999</v>
+      </c>
+      <c r="M193" s="3">
+        <v>108.24290000000001</v>
+      </c>
+      <c r="N193" s="3">
+        <v>524.89800000000002</v>
+      </c>
+      <c r="O193" s="3">
+        <v>161.53139999999999</v>
+      </c>
+      <c r="P193" s="3">
+        <v>46.965350000000001</v>
+      </c>
+      <c r="Q193" s="3">
+        <v>104.3233</v>
+      </c>
+      <c r="R193" s="3">
+        <v>125.55629999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>8</v>
+      </c>
+      <c r="B194" s="3">
+        <v>2.2202859999999999E-8</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1.0213319999999999E-6</v>
+      </c>
+      <c r="D194" s="3">
+        <v>6.2501050000000002E-7</v>
+      </c>
+      <c r="E194" s="3">
+        <v>5.7394390000000003E-7</v>
+      </c>
+      <c r="F194" s="3">
+        <v>4.2229839999999999E-9</v>
+      </c>
+      <c r="G194" s="3">
+        <v>1.9671730000000001E-9</v>
+      </c>
+      <c r="H194" s="3">
+        <v>3.9010419999999998E-9</v>
+      </c>
+      <c r="I194" s="3">
+        <v>1.4320839999999999E-9</v>
+      </c>
+      <c r="J194" s="3">
+        <v>1.8606E-9</v>
+      </c>
+      <c r="K194" s="3">
+        <v>1.9316490000000001E-9</v>
+      </c>
+      <c r="L194" s="3">
+        <v>5.7238969999999999E-9</v>
+      </c>
+      <c r="M194" s="3">
+        <v>1.503134E-9</v>
+      </c>
+      <c r="N194" s="3">
+        <v>2.8619490000000001E-9</v>
+      </c>
+      <c r="O194" s="3">
+        <v>1.39434E-9</v>
+      </c>
+      <c r="P194" s="3">
+        <v>1.7185009999999999E-9</v>
+      </c>
+      <c r="Q194" s="3">
+        <v>2.7553750000000001E-9</v>
+      </c>
+      <c r="R194" s="3">
+        <v>2.2180659999999999E-9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>9</v>
+      </c>
+      <c r="B195" s="3">
+        <v>1.8296789999999999E-26</v>
+      </c>
+      <c r="C195" s="3">
+        <v>7.8579840000000001E-25</v>
+      </c>
+      <c r="D195" s="3">
+        <v>5.2010489999999998E-25</v>
+      </c>
+      <c r="E195" s="3">
+        <v>5.2345620000000002E-25</v>
+      </c>
+      <c r="F195" s="3">
+        <v>3.9748759999999999E-27</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1.832107E-27</v>
+      </c>
+      <c r="H195" s="3">
+        <v>3.1508629999999999E-27</v>
+      </c>
+      <c r="I195" s="3">
+        <v>1.321739E-27</v>
+      </c>
+      <c r="J195" s="3">
+        <v>1.009633E-27</v>
+      </c>
+      <c r="K195" s="3">
+        <v>1.545856E-27</v>
+      </c>
+      <c r="L195" s="3">
+        <v>3.8653280000000003E-27</v>
+      </c>
+      <c r="M195" s="3">
+        <v>4.3434009999999997E-28</v>
+      </c>
+      <c r="N195" s="3">
+        <v>1.3571040000000001E-27</v>
+      </c>
+      <c r="O195" s="3">
+        <v>2.0712910000000001E-27</v>
+      </c>
+      <c r="P195" s="3">
+        <v>1.110945E-27</v>
+      </c>
+      <c r="Q195" s="3">
+        <v>1.0638239999999999E-27</v>
+      </c>
+      <c r="R195" s="3">
+        <v>8.042743E-28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+      <c r="C200" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" s="31">
+        <v>20422.178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="31">
+        <v>17681.512999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="31">
+        <v>16865.008999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="31">
+        <v>14158.494000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="31">
+        <v>14006.028</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="31">
+        <v>13654.038</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" s="31">
+        <v>11586.941999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D208" s="31">
+        <v>10779.681</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="31">
+        <v>9659.7090000000007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" s="31">
+        <v>9159.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="31">
+        <v>9106.0319999999992</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="31">
+        <v>8770.6910000000007</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C213" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213" s="31">
+        <v>8439.8809999999994</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="31">
+        <v>8000.0209999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C215" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="31">
+        <v>7592.7449999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D216" s="31">
+        <v>7467.9570000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" s="31">
+        <v>5059.9769999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C218" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" s="31">
+        <v>3875.8440000000001</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="B112:E115">
+    <sortCondition ref="E112:E115"/>
+    <sortCondition ref="B112:B115"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
